--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2473,10 +2473,10 @@
         <v>44652</v>
       </c>
       <c r="D125">
-        <v>121.318</v>
+        <v>121.316</v>
       </c>
       <c r="E125">
-        <v>0.0626921628226802</v>
+        <v>0.06267464370494302</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2490,10 +2490,10 @@
         <v>44682</v>
       </c>
       <c r="D126">
-        <v>122.026</v>
+        <v>122.03</v>
       </c>
       <c r="E126">
-        <v>0.06324988890534744</v>
+        <v>0.06328474212970625</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2507,10 +2507,27 @@
         <v>44713</v>
       </c>
       <c r="D127">
-        <v>123.187</v>
+        <v>123.203</v>
       </c>
       <c r="E127">
-        <v>0.06758935071237904</v>
+        <v>0.0677280133116096</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>762</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44743</v>
+      </c>
+      <c r="D128">
+        <v>123.121</v>
+      </c>
+      <c r="E128">
+        <v>0.06278971401935318</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,10 +1402,10 @@
         <v>42736</v>
       </c>
       <c r="D62">
-        <v>105.41</v>
+        <v>105.408</v>
       </c>
       <c r="E62">
-        <v>0.02036667763731059</v>
+        <v>0.02034731767757925</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1419,10 +1419,10 @@
         <v>42767</v>
       </c>
       <c r="D63">
-        <v>105.502</v>
+        <v>105.57</v>
       </c>
       <c r="E63">
-        <v>0.02189031595668411</v>
+        <v>0.02254896263148698</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1436,10 +1436,10 @@
         <v>42795</v>
       </c>
       <c r="D64">
-        <v>105.448</v>
+        <v>105.512</v>
       </c>
       <c r="E64">
-        <v>0.01900832036799027</v>
+        <v>0.01962679139165657</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1453,10 +1453,10 @@
         <v>42826</v>
       </c>
       <c r="D65">
-        <v>105.732</v>
+        <v>105.744</v>
       </c>
       <c r="E65">
-        <v>0.0183870625969198</v>
+        <v>0.01850264392283019</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1470,10 +1470,10 @@
         <v>42856</v>
       </c>
       <c r="D66">
-        <v>105.703</v>
+        <v>105.714</v>
       </c>
       <c r="E66">
-        <v>0.01659982496128953</v>
+        <v>0.01670561758850519</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1487,10 +1487,10 @@
         <v>42887</v>
       </c>
       <c r="D67">
-        <v>105.818</v>
+        <v>105.815</v>
       </c>
       <c r="E67">
-        <v>0.01577153827693789</v>
+        <v>0.01574274058075353</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1504,10 +1504,10 @@
         <v>42917</v>
       </c>
       <c r="D68">
-        <v>105.844</v>
+        <v>105.842</v>
       </c>
       <c r="E68">
-        <v>0.01560191137807276</v>
+        <v>0.01558272083517243</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1521,10 +1521,10 @@
         <v>42948</v>
       </c>
       <c r="D69">
-        <v>106.074</v>
+        <v>106.093</v>
       </c>
       <c r="E69">
-        <v>0.01628758119838269</v>
+        <v>0.01646961887059994</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1538,10 +1538,10 @@
         <v>42979</v>
       </c>
       <c r="D70">
-        <v>106.52</v>
+        <v>106.491</v>
       </c>
       <c r="E70">
-        <v>0.01879393620582448</v>
+        <v>0.01851657022619668</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1555,10 +1555,10 @@
         <v>43009</v>
       </c>
       <c r="D71">
-        <v>106.692</v>
+        <v>106.648</v>
       </c>
       <c r="E71">
-        <v>0.0181894527894948</v>
+        <v>0.01776954936728181</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1572,10 +1572,10 @@
         <v>43040</v>
       </c>
       <c r="D72">
-        <v>106.88</v>
+        <v>106.825</v>
       </c>
       <c r="E72">
-        <v>0.01959437544120735</v>
+        <v>0.01906969644935419</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1589,10 +1589,10 @@
         <v>43070</v>
       </c>
       <c r="D73">
-        <v>106.995</v>
+        <v>106.98</v>
       </c>
       <c r="E73">
-        <v>0.01883504575449702</v>
+        <v>0.0186922117371473</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1606,10 +1606,10 @@
         <v>43101</v>
       </c>
       <c r="D74">
-        <v>107.354</v>
+        <v>107.362</v>
       </c>
       <c r="E74">
-        <v>0.01844227302912449</v>
+        <v>0.01853749241044311</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1623,10 +1623,10 @@
         <v>43132</v>
       </c>
       <c r="D75">
-        <v>107.574</v>
+        <v>107.625</v>
       </c>
       <c r="E75">
-        <v>0.0196394381149172</v>
+        <v>0.01946575731741973</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1640,10 +1640,10 @@
         <v>43160</v>
       </c>
       <c r="D76">
-        <v>107.744</v>
+        <v>107.777</v>
       </c>
       <c r="E76">
-        <v>0.02177376526818908</v>
+        <v>0.02146675259686104</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1657,10 +1657,10 @@
         <v>43191</v>
       </c>
       <c r="D77">
-        <v>108.008</v>
+        <v>107.988</v>
       </c>
       <c r="E77">
-        <v>0.02152612264971809</v>
+        <v>0.02122106218792563</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1674,10 +1674,10 @@
         <v>43221</v>
       </c>
       <c r="D78">
-        <v>108.203</v>
+        <v>108.193</v>
       </c>
       <c r="E78">
-        <v>0.02365117357123259</v>
+        <v>0.02345006337854971</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1691,10 +1691,10 @@
         <v>43252</v>
       </c>
       <c r="D79">
-        <v>108.341</v>
+        <v>108.317</v>
       </c>
       <c r="E79">
-        <v>0.02384282447220687</v>
+        <v>0.02364504087322206</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1708,10 +1708,10 @@
         <v>43282</v>
       </c>
       <c r="D80">
-        <v>108.427</v>
+        <v>108.417</v>
       </c>
       <c r="E80">
-        <v>0.02440383961301551</v>
+        <v>0.02432871638857925</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1725,10 +1725,10 @@
         <v>43313</v>
       </c>
       <c r="D81">
-        <v>108.491</v>
+        <v>108.502</v>
       </c>
       <c r="E81">
-        <v>0.02278597959914785</v>
+        <v>0.02270649335959951</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1742,10 +1742,10 @@
         <v>43344</v>
       </c>
       <c r="D82">
-        <v>108.72</v>
+        <v>108.738</v>
       </c>
       <c r="E82">
-        <v>0.02065339842283143</v>
+        <v>0.02110037467955039</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1759,10 +1759,10 @@
         <v>43374</v>
       </c>
       <c r="D83">
-        <v>108.947</v>
+        <v>108.924</v>
       </c>
       <c r="E83">
-        <v>0.02113560529374281</v>
+        <v>0.02134123471607552</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1776,10 +1776,10 @@
         <v>43405</v>
       </c>
       <c r="D84">
-        <v>109.023</v>
+        <v>108.969</v>
       </c>
       <c r="E84">
-        <v>0.02005052395209583</v>
+        <v>0.0200702082845774</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1793,10 +1793,10 @@
         <v>43435</v>
       </c>
       <c r="D85">
-        <v>108.99</v>
+        <v>108.991</v>
       </c>
       <c r="E85">
-        <v>0.01864573110893031</v>
+        <v>0.01879790615068222</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1810,10 +1810,10 @@
         <v>43466</v>
       </c>
       <c r="D86">
-        <v>108.93</v>
+        <v>108.977</v>
       </c>
       <c r="E86">
-        <v>0.0146804031521881</v>
+        <v>0.01504256627112022</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1827,10 +1827,10 @@
         <v>43497</v>
       </c>
       <c r="D87">
-        <v>109.036</v>
+        <v>109.146</v>
       </c>
       <c r="E87">
-        <v>0.01359064457954529</v>
+        <v>0.01413240418118478</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1844,10 +1844,10 @@
         <v>43525</v>
       </c>
       <c r="D88">
-        <v>109.333</v>
+        <v>109.443</v>
       </c>
       <c r="E88">
-        <v>0.01474792099792088</v>
+        <v>0.01545784351021084</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1861,10 +1861,10 @@
         <v>43556</v>
       </c>
       <c r="D89">
-        <v>109.759</v>
+        <v>109.78</v>
       </c>
       <c r="E89">
-        <v>0.01621176209169706</v>
+        <v>0.01659443641886127</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1878,10 +1878,10 @@
         <v>43586</v>
       </c>
       <c r="D90">
-        <v>109.827</v>
+        <v>109.856</v>
       </c>
       <c r="E90">
-        <v>0.01500882600297593</v>
+        <v>0.01537068017339371</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1895,10 +1895,10 @@
         <v>43617</v>
       </c>
       <c r="D91">
-        <v>109.92</v>
+        <v>109.935</v>
       </c>
       <c r="E91">
-        <v>0.01457435319961986</v>
+        <v>0.01493763675138715</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1912,10 +1912,10 @@
         <v>43647</v>
       </c>
       <c r="D92">
-        <v>110.074</v>
+        <v>110.094</v>
       </c>
       <c r="E92">
-        <v>0.01518994346426616</v>
+        <v>0.01546805390298567</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1929,10 +1929,10 @@
         <v>43678</v>
       </c>
       <c r="D93">
-        <v>110.133</v>
+        <v>110.132</v>
       </c>
       <c r="E93">
-        <v>0.01513489598215512</v>
+        <v>0.01502276455733553</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1946,10 +1946,10 @@
         <v>43709</v>
       </c>
       <c r="D94">
-        <v>110.215</v>
+        <v>110.207</v>
       </c>
       <c r="E94">
-        <v>0.01375091979396625</v>
+        <v>0.01350953668450772</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1963,10 +1963,10 @@
         <v>43739</v>
       </c>
       <c r="D95">
-        <v>110.479</v>
+        <v>110.423</v>
       </c>
       <c r="E95">
-        <v>0.01406188330105462</v>
+        <v>0.01376188902353936</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1980,10 +1980,10 @@
         <v>43770</v>
       </c>
       <c r="D96">
-        <v>110.568</v>
+        <v>110.469</v>
       </c>
       <c r="E96">
-        <v>0.01417132164772572</v>
+        <v>0.01376538281529616</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1997,10 +1997,10 @@
         <v>43800</v>
       </c>
       <c r="D97">
-        <v>110.789</v>
+        <v>110.736</v>
       </c>
       <c r="E97">
-        <v>0.01650610147719989</v>
+        <v>0.01601049627950935</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2014,10 +2014,10 @@
         <v>43831</v>
       </c>
       <c r="D98">
-        <v>111.002</v>
+        <v>110.944</v>
       </c>
       <c r="E98">
-        <v>0.01902138988341129</v>
+        <v>0.01804968020775033</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2031,10 +2031,10 @@
         <v>43862</v>
       </c>
       <c r="D99">
-        <v>111.071</v>
+        <v>111.07</v>
       </c>
       <c r="E99">
-        <v>0.01866356065886499</v>
+        <v>0.01762776464552052</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2048,10 +2048,10 @@
         <v>43891</v>
       </c>
       <c r="D100">
-        <v>110.802</v>
+        <v>110.824</v>
       </c>
       <c r="E100">
-        <v>0.01343601657322124</v>
+        <v>0.01261844064947049</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2065,10 +2065,10 @@
         <v>43922</v>
       </c>
       <c r="D101">
-        <v>110.213</v>
+        <v>110.237</v>
       </c>
       <c r="E101">
-        <v>0.004136335061361684</v>
+        <v>0.004162871196939255</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2082,10 +2082,10 @@
         <v>43952</v>
       </c>
       <c r="D102">
-        <v>110.385</v>
+        <v>110.353</v>
       </c>
       <c r="E102">
-        <v>0.005080717856264849</v>
+        <v>0.004524104281969032</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2099,10 +2099,10 @@
         <v>43983</v>
       </c>
       <c r="D103">
-        <v>110.918</v>
+        <v>110.746</v>
       </c>
       <c r="E103">
-        <v>0.009079330422125276</v>
+        <v>0.007377086460180982</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2116,10 +2116,10 @@
         <v>44013</v>
       </c>
       <c r="D104">
-        <v>111.221</v>
+        <v>111.072</v>
       </c>
       <c r="E104">
-        <v>0.01042026273234375</v>
+        <v>0.008883317891983378</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2133,10 +2133,10 @@
         <v>44044</v>
       </c>
       <c r="D105">
-        <v>111.563</v>
+        <v>111.411</v>
       </c>
       <c r="E105">
-        <v>0.01298430079994195</v>
+        <v>0.01161333672320475</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2150,10 +2150,10 @@
         <v>44075</v>
       </c>
       <c r="D106">
-        <v>111.736</v>
+        <v>111.613</v>
       </c>
       <c r="E106">
-        <v>0.01380029941478012</v>
+        <v>0.01275781030243084</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2167,10 +2167,10 @@
         <v>44105</v>
       </c>
       <c r="D107">
-        <v>111.775</v>
+        <v>111.648</v>
       </c>
       <c r="E107">
-        <v>0.01173073615800302</v>
+        <v>0.01109370330456505</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2184,10 +2184,10 @@
         <v>44136</v>
       </c>
       <c r="D108">
-        <v>111.79</v>
+        <v>111.666</v>
       </c>
       <c r="E108">
-        <v>0.01105202228492885</v>
+        <v>0.01083561904244634</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2201,10 +2201,10 @@
         <v>44166</v>
       </c>
       <c r="D109">
-        <v>112.22</v>
+        <v>112.15</v>
       </c>
       <c r="E109">
-        <v>0.01291644477339804</v>
+        <v>0.01276910851033097</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2218,10 +2218,10 @@
         <v>44197</v>
       </c>
       <c r="D110">
-        <v>112.57</v>
+        <v>112.583</v>
       </c>
       <c r="E110">
-        <v>0.01412587160591694</v>
+        <v>0.01477321892125749</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2235,10 +2235,10 @@
         <v>44228</v>
       </c>
       <c r="D111">
-        <v>112.878</v>
+        <v>112.961</v>
       </c>
       <c r="E111">
-        <v>0.01626887306317593</v>
+        <v>0.01702529936076358</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2252,10 +2252,10 @@
         <v>44256</v>
       </c>
       <c r="D112">
-        <v>113.518</v>
+        <v>113.632</v>
       </c>
       <c r="E112">
-        <v>0.02451219292070528</v>
+        <v>0.02533747202771974</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2269,10 +2269,10 @@
         <v>44287</v>
       </c>
       <c r="D113">
-        <v>114.161</v>
+        <v>114.238</v>
       </c>
       <c r="E113">
-        <v>0.03582154555270267</v>
+        <v>0.03629452906011599</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2286,10 +2286,10 @@
         <v>44317</v>
       </c>
       <c r="D114">
-        <v>114.767</v>
+        <v>114.819</v>
       </c>
       <c r="E114">
-        <v>0.03969742265706389</v>
+        <v>0.04047012768116875</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2303,10 +2303,10 @@
         <v>44348</v>
       </c>
       <c r="D115">
-        <v>115.388</v>
+        <v>115.458</v>
       </c>
       <c r="E115">
-        <v>0.04030004147207844</v>
+        <v>0.04254781211059555</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2320,10 +2320,10 @@
         <v>44378</v>
       </c>
       <c r="D116">
-        <v>115.847</v>
+        <v>115.986</v>
       </c>
       <c r="E116">
-        <v>0.04159286465685419</v>
+        <v>0.04424157303370779</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2337,10 +2337,10 @@
         <v>44409</v>
       </c>
       <c r="D117">
-        <v>116.29</v>
+        <v>116.444</v>
       </c>
       <c r="E117">
-        <v>0.04237067845074094</v>
+        <v>0.04517507247937824</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2354,10 +2354,10 @@
         <v>44440</v>
       </c>
       <c r="D118">
-        <v>116.693</v>
+        <v>116.808</v>
       </c>
       <c r="E118">
-        <v>0.04436349967781195</v>
+        <v>0.04654475733113528</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2371,10 +2371,10 @@
         <v>44470</v>
       </c>
       <c r="D119">
-        <v>117.429</v>
+        <v>117.479</v>
       </c>
       <c r="E119">
-        <v>0.05058376202191894</v>
+        <v>0.0522266408713099</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2388,10 +2388,10 @@
         <v>44501</v>
       </c>
       <c r="D120">
-        <v>118.106</v>
+        <v>118.2</v>
       </c>
       <c r="E120">
-        <v>0.05649879237856692</v>
+        <v>0.05851378217183401</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2405,10 +2405,10 @@
         <v>44531</v>
       </c>
       <c r="D121">
-        <v>118.709</v>
+        <v>118.841</v>
       </c>
       <c r="E121">
-        <v>0.05782391730529324</v>
+        <v>0.05966116807846622</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2422,10 +2422,10 @@
         <v>44562</v>
       </c>
       <c r="D122">
-        <v>119.321</v>
+        <v>119.469</v>
       </c>
       <c r="E122">
-        <v>0.05997157324331526</v>
+        <v>0.06116376362328224</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2439,10 +2439,10 @@
         <v>44593</v>
       </c>
       <c r="D123">
-        <v>119.96</v>
+        <v>120.178</v>
       </c>
       <c r="E123">
-        <v>0.06274030369071038</v>
+        <v>0.06388930692894013</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2456,10 +2456,10 @@
         <v>44621</v>
       </c>
       <c r="D124">
-        <v>121.054</v>
+        <v>121.321</v>
       </c>
       <c r="E124">
-        <v>0.0663859476030233</v>
+        <v>0.06766579836665731</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2473,10 +2473,10 @@
         <v>44652</v>
       </c>
       <c r="D125">
-        <v>121.316</v>
+        <v>121.563</v>
       </c>
       <c r="E125">
-        <v>0.06267464370494302</v>
+        <v>0.06412052031723237</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2490,10 +2490,10 @@
         <v>44682</v>
       </c>
       <c r="D126">
-        <v>122.03</v>
+        <v>122.3</v>
       </c>
       <c r="E126">
-        <v>0.06328474212970625</v>
+        <v>0.06515472177949633</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2507,10 +2507,10 @@
         <v>44713</v>
       </c>
       <c r="D127">
-        <v>123.203</v>
+        <v>123.512</v>
       </c>
       <c r="E127">
-        <v>0.0677280133116096</v>
+        <v>0.06975696790174779</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2524,10 +2524,27 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.121</v>
+        <v>123.369</v>
       </c>
       <c r="E128">
-        <v>0.06278971401935318</v>
+        <v>0.06365423413170546</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>763</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44774</v>
+      </c>
+      <c r="D129">
+        <v>123.721</v>
+      </c>
+      <c r="E129">
+        <v>0.06249355913572185</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.369</v>
+        <v>123.366</v>
       </c>
       <c r="E128">
-        <v>0.06365423413170546</v>
+        <v>0.06362836894107904</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,27 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>123.721</v>
+        <v>123.69</v>
       </c>
       <c r="E129">
-        <v>0.06249355913572185</v>
+        <v>0.06222733674556014</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>764</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44805</v>
+      </c>
+      <c r="D130">
+        <v>124.102</v>
+      </c>
+      <c r="E130">
+        <v>0.06244435312649821</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.366</v>
+        <v>123.385</v>
       </c>
       <c r="E128">
-        <v>0.06362836894107904</v>
+        <v>0.06379218181504664</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,10 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>123.69</v>
+        <v>123.71</v>
       </c>
       <c r="E129">
-        <v>0.06222733674556014</v>
+        <v>0.06239909312630965</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2558,10 +2558,27 @@
         <v>44805</v>
       </c>
       <c r="D130">
-        <v>124.102</v>
+        <v>124.134</v>
       </c>
       <c r="E130">
-        <v>0.06244435312649821</v>
+        <v>0.06271830696527636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>765</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44835</v>
+      </c>
+      <c r="D131">
+        <v>124.55</v>
+      </c>
+      <c r="E131">
+        <v>0.06018948067314156</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2524,10 +2524,10 @@
         <v>44743</v>
       </c>
       <c r="D128">
-        <v>123.385</v>
+        <v>123.397</v>
       </c>
       <c r="E128">
-        <v>0.06379218181504664</v>
+        <v>0.06389564257755254</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2541,10 +2541,10 @@
         <v>44774</v>
       </c>
       <c r="D129">
-        <v>123.71</v>
+        <v>123.728</v>
       </c>
       <c r="E129">
-        <v>0.06239909312630965</v>
+        <v>0.06255367386898425</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2558,10 +2558,10 @@
         <v>44805</v>
       </c>
       <c r="D130">
-        <v>124.134</v>
+        <v>124.154</v>
       </c>
       <c r="E130">
-        <v>0.06271830696527636</v>
+        <v>0.06288952811451254</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2575,10 +2575,27 @@
         <v>44835</v>
       </c>
       <c r="D131">
-        <v>124.55</v>
+        <v>124.617</v>
       </c>
       <c r="E131">
-        <v>0.06018948067314156</v>
+        <v>0.06075979536768283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>766</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44866</v>
+      </c>
+      <c r="D132">
+        <v>124.747</v>
+      </c>
+      <c r="E132">
+        <v>0.05538917089678508</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2575,10 +2575,10 @@
         <v>44835</v>
       </c>
       <c r="D131">
-        <v>124.617</v>
+        <v>124.676</v>
       </c>
       <c r="E131">
-        <v>0.06075979536768283</v>
+        <v>0.06126201278526366</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2592,10 +2592,61 @@
         <v>44866</v>
       </c>
       <c r="D132">
-        <v>124.747</v>
+        <v>124.889</v>
       </c>
       <c r="E132">
-        <v>0.05538917089678508</v>
+        <v>0.05659052453468694</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>767</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D133">
+        <v>125.141</v>
+      </c>
+      <c r="E133">
+        <v>0.05301200764046099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>768</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44927</v>
+      </c>
+      <c r="D134">
+        <v>125.858</v>
+      </c>
+      <c r="E134">
+        <v>0.05347830818036492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>769</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D135">
+        <v>126.189</v>
+      </c>
+      <c r="E135">
+        <v>0.05001747408011448</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/us_pce.xlsx
+++ b/mercados/us_pce.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2626,10 +2626,10 @@
         <v>44927</v>
       </c>
       <c r="D134">
-        <v>125.858</v>
+        <v>125.874</v>
       </c>
       <c r="E134">
-        <v>0.05347830818036492</v>
+        <v>0.05361223413605209</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2643,10 +2643,61 @@
         <v>44958</v>
       </c>
       <c r="D135">
-        <v>126.189</v>
+        <v>126.24</v>
       </c>
       <c r="E135">
-        <v>0.05001747408011448</v>
+        <v>0.05044184459718082</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>770</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44986</v>
+      </c>
+      <c r="D136">
+        <v>126.385</v>
+      </c>
+      <c r="E136">
+        <v>0.04174050658995565</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>771</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45017</v>
+      </c>
+      <c r="D137">
+        <v>126.844</v>
+      </c>
+      <c r="E137">
+        <v>0.04344249483806739</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>772</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D138">
+        <v>127.007</v>
+      </c>
+      <c r="E138">
+        <v>0.03848732624693385</v>
       </c>
     </row>
   </sheetData>
